--- a/20260108检查结果.xlsx
+++ b/20260108检查结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,46 +479,6 @@
           <t>手机号</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>组合重复</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>字段数值超出范围</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>字段枚举值非法</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>表头空值</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>邮政编码</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>主键重复（不允许）</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>日期格式非法</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>身份证号</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -528,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>行4 列19：字段位数不符合要求：门牌号（要求3位，原始值='0000'，处理后值='0'，实际1位）</t>
+          <t>行3 列20：字段位数不符合要求：设备号（要求11位到14位之间，原始值='55'，处理后值='55'，实际2位）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -564,46 +524,6 @@
       <c r="I2" t="inlineStr">
         <is>
           <t>行4 列16：手机号：长度需为11位（当前13位）</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>行8 列1：组合重复：[监测点=安国市植物园监测点] + [测试时间=2025-10-01 08:05:00 + 风速（单位:m/s）=0.9] | 重复行：6,8</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>行4 列9：字段数值超出范围：年龄（允许0~200），当前值=-1.0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>行4 列11：字段枚举值非法：性别（允许值：男、女、保密，当前值='男性'）</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>行1 列1：表头空值：NaN（空白单元格）</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>行4 列8：邮政编码：长度需为6位（当前3位）</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>行12 列1：主键重复（不允许）：[机构名称=保定市第二中心医院] | 重复行：2,12</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>行2 列7：日期格式非法：时间（当前值='2025/13/30'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>行5 列6：身份证号：长度需为18位（当前17位）</t>
         </is>
       </c>
     </row>
@@ -611,14 +531,10 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>行7 列19：字段位数不符合要求：门牌号（要求3位，原始值='20.0'，处理后值='20'，实际2位）</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>行4 列11：内容包含敏感词：【性别】列（行4列11），当前值='男性'，检测到敏感词：性</t>
-        </is>
-      </c>
+          <t>行4 列20：字段位数不符合要求：设备号（要求11位到14位之间，原始值='4'，处理后值='4'，实际1位）</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>行4 列16：字段加密检查：【手机号】列（行4列16）未加密，当前值='15350750002.0'（需包含至少1个*）</t>
@@ -643,42 +559,6 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>行5 列16：手机号：长度需为11位（当前10位）</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>行12 列1：组合重复：[机构名称=保定市第二中心医院] + [身份证号=130982********4314] | 重复行：2,12</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>行6 列9：字段数值超出范围：年龄（允许0~200），当前值=201.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>行5 列11：字段枚举值非法：性别（允许值：男、女、保密，当前值='女性'）</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>行2 列13：表头空值：NaN（空白单元格）</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>行5 列8：邮政编码：长度需为6位（当前7位）</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>行3 列7：日期格式非法：时间（当前值='2025/12/29'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>行9 列6：身份证号：长度需为18位（当前19位）</t>
         </is>
       </c>
     </row>
@@ -686,14 +566,10 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>行2 列20：字段位数不符合要求：设备号（要求1位到4位之间，原始值='"12-3456-789'，处理后值='"12-3456-789'，实际12位）</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>行5 列11：内容包含敏感词：【性别】列（行5列11），当前值='女性'，检测到敏感词：性</t>
-        </is>
-      </c>
+          <t>行5 列20：字段位数不符合要求：设备号（要求11位到14位之间，原始值='22'，处理后值='22'，实际2位）</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>行6 列16：字段加密检查：【手机号】列（行6列16）未加密，当前值='15350750004.0'（需包含至少1个*）</t>
@@ -710,41 +586,21 @@
           <t>行6 列13：小数精度错误：容积(L)列需保留1位小数（当前值35.02，实际2位）</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>行5 列3：空值(空白字符)</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>行6 列16：手机号：长度需为11位（当前13位）</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>行6 列11：字段枚举值非法：性别（允许值：男、女、保密，当前值='男男'）</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>行4 列7：日期格式非法：时间（当前值='2024/12/30'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>行10 列2：内容包含敏感词：【机构名称】列（行10列2），当前值='涿州安康精神病医院'，检测到敏感词：精神病</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>行6 列20：字段位数不符合要求：设备号（要求11位到14位之间，原始值='445'，处理后值='445'，实际3位）</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>行7 列16：字段加密检查：【手机号】列（行7列16）未加密，当前值='15350750004.0'（需包含至少1个*）</t>
@@ -761,36 +617,20 @@
           <t>行7 列13：小数精度错误：容积(L)列需保留1位小数（当前值35.02，实际2位）</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>行7 列2：空值(空白字符)</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>行7 列16：手机号：长度需为11位（当前13位）</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>行8 列11：字段枚举值非法：性别（允许值：男、女、保密，当前值='秘密'）</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>行5 列7：日期格式非法：时间（当前值='2025/12/3'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>行7 列20：字段位数不符合要求：设备号（要求11位到14位之间，原始值='5523'，处理后值='5523'，实际4位）</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -800,28 +640,8 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>行8 列5：空值(空白字符)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>行2 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='正常'）</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>行6 列7：日期格式非法：时间（当前值='2025-25'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -837,157 +657,6 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>行3 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='故障'）</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>行7 列7：日期格式非法：时间（当前值='Nov-25'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>行4 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='不正常'）</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>行8 列7：日期格式非法：时间（当前值='2025/11/3'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>行5 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='停用'）</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>行9 列7：日期格式非法：时间（当前值='2025/11/3'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>行6 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='正常'）</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>行10 列7：日期格式非法：时间（当前值='2020/5/6'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>行7 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='正常'）</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>行11 列7：日期格式非法：时间（当前值='2020/6/5'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>行8 列10：字段枚举值非法：状态（允许值：在用、通气已点火、通气未点火，当前值='正常'）</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>行12 列7：日期格式非法：时间（当前值='2020/5/6'，不匹配允许的日期格式（允许：YYYY-MM-DD））</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
